--- a/alpha_release/CodeBase(Only_DYnamic)/Dynamic_Analysis(Without_Static_analysis).xlsx
+++ b/alpha_release/CodeBase(Only_DYnamic)/Dynamic_Analysis(Without_Static_analysis).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Class name</t>
   </si>
@@ -92,6 +92,45 @@
   </si>
   <si>
     <t>NODE</t>
+  </si>
+  <si>
+    <t>BETA_UPDATE</t>
+  </si>
+  <si>
+    <t>7+1</t>
+  </si>
+  <si>
+    <t>DERIVATIVE</t>
+  </si>
+  <si>
+    <t>17+7+6+4+1+1</t>
+  </si>
+  <si>
+    <t>MUL_POLY</t>
+  </si>
+  <si>
+    <t>18+7+6+1+3+1</t>
+  </si>
+  <si>
+    <t>INTEGRATE</t>
+  </si>
+  <si>
+    <t>17+7+6+1+2+1</t>
+  </si>
+  <si>
+    <t>SUB_TRACT</t>
+  </si>
+  <si>
+    <t>18+6+7+1+1</t>
+  </si>
+  <si>
+    <t>ADD_POLY</t>
+  </si>
+  <si>
+    <t>13+6+7+1+1</t>
+  </si>
+  <si>
+    <t>FIND_VALUE</t>
   </si>
 </sst>
 </file>
@@ -359,7 +398,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -371,7 +410,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -401,7 +440,7 @@
         <v>47.0</v>
       </c>
       <c r="G2" s="1">
-        <v>136.0</v>
+        <v>135.0</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -501,7 +540,7 @@
       <c r="E6" s="1">
         <v>44.4</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>15.0</v>
       </c>
       <c r="G6" s="1">
@@ -527,7 +566,7 @@
       <c r="E7" s="1">
         <v>68.2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>7.0</v>
       </c>
       <c r="G7" s="1">
@@ -639,6 +678,179 @@
       </c>
       <c r="H11" s="1">
         <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <v>82.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>87.0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>38.3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>67.7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>73.9</v>
+      </c>
+      <c r="F14" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>48.2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>76.3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1">
+        <v>68.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>46.3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>75.9</v>
+      </c>
+      <c r="F17" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1">
+        <v>57.8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>75.8</v>
+      </c>
+      <c r="F18" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>62.0</v>
       </c>
     </row>
   </sheetData>
